--- a/biology/Médecine/Esprits_animaux/Esprits_animaux.xlsx
+++ b/biology/Médecine/Esprits_animaux/Esprits_animaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion d'esprits animaux vise à expliquer le  comportement humain. Elle a différents sens selon le contexte historique et disciplinaire. La théorie des esprits animaux est d'abord une théorie abandonnée en physiologie selon laquelle il existerait une matière très légère qui circule dans les nerfs et communique le mouvement du cerveau aux muscles. L'équivalent dans la science contemporaine des esprits animaux sont les influx nerveux[1]. Par ailleurs, la notion a été mobilisée par John Maynard Keynes pour décrire les émotions humaines qui influencent le comportement des agents économiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion d'esprits animaux vise à expliquer le  comportement humain. Elle a différents sens selon le contexte historique et disciplinaire. La théorie des esprits animaux est d'abord une théorie abandonnée en physiologie selon laquelle il existerait une matière très légère qui circule dans les nerfs et communique le mouvement du cerveau aux muscles. L'équivalent dans la science contemporaine des esprits animaux sont les influx nerveux. Par ailleurs, la notion a été mobilisée par John Maynard Keynes pour décrire les émotions humaines qui influencent le comportement des agents économiques.
 </t>
         </is>
       </c>
@@ -511,15 +523,11 @@
           <t>Le concept d'esprits animaux dans l'histoire de la médecine et de la philosophie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concept d'esprits animaux a d'abord été élaboré dans la pensée médicale grecque par Galien, il est ensuite repris au Moyen Âge par les philosophes scolastiques puis encore utilisé à l'âge classique par des médecins et philosophes tels que  Francis Bacon et Descartes.
-Chez Galien
-Chez les scholastiques
-Pour les scolastiques, les esprits animaux (spiritus animalis, spiritus vitalis) sont l'élément matériel des passions. Selon Thomas d'Aquin, les esprits animaux sont des vapeurs très subtiles au moyen desquelles les puissances de l'âme agissent par tout le corps. C'est ainsi que « les jeunes gens (juvenes), à cause de leur chaleur naturelle (propter caliditatem naturae), abondent en esprits vitaux (habent multos spiritus) », ce qui leur donne d'être passionnés, « entreprenants et pleins d'espoirs » (animosi et bonae spei) (Somme théologique, Ia-IIa, qu. 40, art. 6)[2].
-À l'âge classique
-Francis Bacon parle plutôt d'esprits vitaux, vents très subtils composés d'air et de flamme (aura composita acre et flamma) qui régissent les esprits mortuaires et président aux fonctions vitales. Ils sont le principe de la vie végétative : « Dans tous les corps animés se trouvent deux esprits : les esprits mortels, tels qu'ils existent dans les corps inanimés, et, en outre, les esprits vitaux. Les fonctions naturelles sont propres à différentes parties, mais l'esprit vital les excite et les aiguise. Les esprits mortels sont d'une substance qui a de l'analogie avec celle de l'air ; les esprits vitaux se rapprochent plus de la substance de la flamme. Les esprits ont deux besoins : l'un de se multiplier, l'autre de s'échapper et de s'unir à tout ce qui est de même nature » (De la grande restauration des sciences. Instauratio magna, VI) (1620).
-Chez Descartes, les esprits animaux sont, en physiologie, des corpuscules composés des parties « les plus fines et les plus subtiles » du sang, elles circulent du cerveau aux muscles et meuvent le corps. Les passions de l'âme sont « des perceptions ou des sentiments ou des émotions de l'âme, qu'on rapporte particulièrement à elle, et qui sont causées, entretenues et fortifiées par quelque mouvement des esprits » (Les passions de l'âme, art. 27) (1649). Les passions « sont principalement causées par les esprits qui sont contenus dans les cavités du cerveau, en tant qu'ils prennent leur cours vers les nerfs qui servent à élargir ou étrécir les orifices du cœur ou à pousser diversement vers lui le sang qui est dans les autres parties ou en quelque autre façon » (art. 37).
 </t>
         </is>
       </c>
@@ -545,16 +553,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Le concept d'esprits animaux dans l'histoire de la médecine et de la philosophie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chez les scholastiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les scolastiques, les esprits animaux (spiritus animalis, spiritus vitalis) sont l'élément matériel des passions. Selon Thomas d'Aquin, les esprits animaux sont des vapeurs très subtiles au moyen desquelles les puissances de l'âme agissent par tout le corps. C'est ainsi que « les jeunes gens (juvenes), à cause de leur chaleur naturelle (propter caliditatem naturae), abondent en esprits vitaux (habent multos spiritus) », ce qui leur donne d'être passionnés, « entreprenants et pleins d'espoirs » (animosi et bonae spei) (Somme théologique, Ia-IIa, qu. 40, art. 6).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Esprits_animaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esprits_animaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le concept d'esprits animaux dans l'histoire de la médecine et de la philosophie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À l'âge classique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Bacon parle plutôt d'esprits vitaux, vents très subtils composés d'air et de flamme (aura composita acre et flamma) qui régissent les esprits mortuaires et président aux fonctions vitales. Ils sont le principe de la vie végétative : « Dans tous les corps animés se trouvent deux esprits : les esprits mortels, tels qu'ils existent dans les corps inanimés, et, en outre, les esprits vitaux. Les fonctions naturelles sont propres à différentes parties, mais l'esprit vital les excite et les aiguise. Les esprits mortels sont d'une substance qui a de l'analogie avec celle de l'air ; les esprits vitaux se rapprochent plus de la substance de la flamme. Les esprits ont deux besoins : l'un de se multiplier, l'autre de s'échapper et de s'unir à tout ce qui est de même nature » (De la grande restauration des sciences. Instauratio magna, VI) (1620).
+Chez Descartes, les esprits animaux sont, en physiologie, des corpuscules composés des parties « les plus fines et les plus subtiles » du sang, elles circulent du cerveau aux muscles et meuvent le corps. Les passions de l'âme sont « des perceptions ou des sentiments ou des émotions de l'âme, qu'on rapporte particulièrement à elle, et qui sont causées, entretenues et fortifiées par quelque mouvement des esprits » (Les passions de l'âme, art. 27) (1649). Les passions « sont principalement causées par les esprits qui sont contenus dans les cavités du cerveau, en tant qu'ils prennent leur cours vers les nerfs qui servent à élargir ou étrécir les orifices du cœur ou à pousser diversement vers lui le sang qui est dans les autres parties ou en quelque autre façon » (art. 37).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Esprits_animaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esprits_animaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Le concept d'esprits animaux dans la science économique contemporaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La notion est mobilisée pour la première fois en économie par John Maynard Keynes. Dans sa Théorie générale de l'emploi, de l'intérêt et de la monnaie, il cherche à comprendre le comportement des agents économiques, et plus particulièrement des investisseurs. Il considère que leur enthousiasme et leurs réactions instinctives sont dus à la domination des esprits animaux :
-« Outre la cause due à la spéculation, l'instabilité économique trouve une autre cause, inhérente celle-ci à la nature humaine, dans le fait qu'une grande partie de nos initiatives dans l'ordre du bien, de l'agréable ou de l'utile procèdent plus d'un optimisme spontané que d'une prévision mathématique. Lorsqu'il faut un long délai pour qu'elles produisent leur plein effet, nos décisions de faire quelque chose de positif doivent être considérées pour la plupart comme une manifestation de notre enthousiasme naturel (as the result of animal spirits) - comme l'effet d'un besoin instinctif d'agir plutôt que de ne rien faire -, et non comme le résultat d'une moyenne pondérée de bénéfices numériques multipliés par des probabilités numériques[3]. »
-La notion d'esprits animaux en économie a été reprise plus récemment lors de la résurgence des idées keynésiennes (le retour du maître), en particulier par Matteo Pasquinelli[4] et George Akerlof[5]. En France, Michaël Lainé a analysé le concept et son retour dans le champ économique dans Sous l'emprise des esprits animaux en 2018[6].
-En 2010, Luzzetti and Ohanian, économistes à l'université UCLA, ont estimé à partir de données historiques américaines l'importance des esprits animaux dans les décisions d'investissement[7]. Contrairement à l'idée de Keynes, ces facteurs psychologiques n'auraient pratiquement eu aucune influence sur l'investissement, du moins après la seconde guerre mondiale. En revanche, sur les données couvrant la Grande Dépression, les investisseurs auraient été trop optimistes dans leur décisions d'investissement, mais ce résultat est contraire à ce que suggérait Keynes.
+« Outre la cause due à la spéculation, l'instabilité économique trouve une autre cause, inhérente celle-ci à la nature humaine, dans le fait qu'une grande partie de nos initiatives dans l'ordre du bien, de l'agréable ou de l'utile procèdent plus d'un optimisme spontané que d'une prévision mathématique. Lorsqu'il faut un long délai pour qu'elles produisent leur plein effet, nos décisions de faire quelque chose de positif doivent être considérées pour la plupart comme une manifestation de notre enthousiasme naturel (as the result of animal spirits) - comme l'effet d'un besoin instinctif d'agir plutôt que de ne rien faire -, et non comme le résultat d'une moyenne pondérée de bénéfices numériques multipliés par des probabilités numériques. »
+La notion d'esprits animaux en économie a été reprise plus récemment lors de la résurgence des idées keynésiennes (le retour du maître), en particulier par Matteo Pasquinelli et George Akerlof. En France, Michaël Lainé a analysé le concept et son retour dans le champ économique dans Sous l'emprise des esprits animaux en 2018.
+En 2010, Luzzetti and Ohanian, économistes à l'université UCLA, ont estimé à partir de données historiques américaines l'importance des esprits animaux dans les décisions d'investissement. Contrairement à l'idée de Keynes, ces facteurs psychologiques n'auraient pratiquement eu aucune influence sur l'investissement, du moins après la seconde guerre mondiale. En revanche, sur les données couvrant la Grande Dépression, les investisseurs auraient été trop optimistes dans leur décisions d'investissement, mais ce résultat est contraire à ce que suggérait Keynes.
 </t>
         </is>
       </c>
